--- a/Nowcasts/2025Q4/tables/nowcasts_2026Q1_Nr10_Np3_Nj0.xlsx
+++ b/Nowcasts/2025Q4/tables/nowcasts_2026Q1_Nr10_Np3_Nj0.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>Row</t>
   </si>
@@ -109,6 +109,57 @@
   </si>
   <si>
     <t>2025-11-15</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>2025-10-15</t>
+  </si>
+  <si>
+    <t>2025-10-30</t>
+  </si>
+  <si>
+    <t>2025-11-15</t>
+  </si>
+  <si>
+    <t>2025-11-30</t>
+  </si>
+  <si>
+    <t>2025-12-15</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -192,55 +243,55 @@
     <col min="3" max="3" width="14.24609375" customWidth="true"/>
     <col min="4" max="4" width="16.24609375" customWidth="true"/>
     <col min="5" max="5" width="16.24609375" customWidth="true"/>
-    <col min="6" max="6" width="16.24609375" customWidth="true"/>
-    <col min="7" max="7" width="15.64453125" customWidth="true"/>
-    <col min="8" max="8" width="15.77734375" customWidth="true"/>
-    <col min="9" max="9" width="16.24609375" customWidth="true"/>
-    <col min="10" max="10" width="15.64453125" customWidth="true"/>
+    <col min="6" max="6" width="15.1796875" customWidth="true"/>
+    <col min="7" max="7" width="15.24609375" customWidth="true"/>
+    <col min="8" max="8" width="15.64453125" customWidth="true"/>
+    <col min="9" max="9" width="15.64453125" customWidth="true"/>
+    <col min="10" max="10" width="15.046875" customWidth="true"/>
     <col min="11" max="11" width="16.24609375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B2" s="0">
-        <v>0.2612990382809211</v>
+        <v>0.22661685469275661</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -272,177 +323,177 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B3" s="0">
-        <v>0.27628412777394928</v>
+        <v>0.2481689299314366</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>0.0023147175930912163</v>
+        <v>-0.00048302235312676622</v>
       </c>
       <c r="E3" s="0">
-        <v>-0.00035907329243957549</v>
+        <v>0.00090921266590800762</v>
       </c>
       <c r="F3" s="0">
-        <v>0.0033960753867977736</v>
+        <v>0.0028084033400880867</v>
       </c>
       <c r="G3" s="0">
-        <v>0.00027569700028947362</v>
+        <v>0.0012565035734771841</v>
       </c>
       <c r="H3" s="0">
-        <v>1.1856141101418398e-05</v>
+        <v>1.6672570027576074e-05</v>
       </c>
       <c r="I3" s="0">
-        <v>-0.00023107469501007659</v>
+        <v>4.9170007162051766e-05</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>-0.00068220747352937261</v>
+        <v>-0.0025498248868839335</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B4" s="0">
-        <v>0.29976031479900084</v>
+        <v>0.41476333730725035</v>
       </c>
       <c r="C4" s="0">
-        <v>0.029183961409945895</v>
+        <v>0.057582756604823662</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>-3.5519840190863799e-05</v>
+        <v>-0.00049189668572749998</v>
       </c>
       <c r="F4" s="0">
-        <v>-0.00031749182692080829</v>
+        <v>8.4681653460787825e-06</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>8.4806691308958445e-07</v>
+        <v>0.00072442576729467246</v>
       </c>
       <c r="I4" s="0">
-        <v>0.00016748494903028207</v>
+        <v>0.0045000167278718408</v>
       </c>
       <c r="J4" s="0">
-        <v>0.00064195180422957213</v>
+        <v>0.0036555566273982864</v>
       </c>
       <c r="K4" s="0">
-        <v>-4.5679075177385009e-06</v>
+        <v>0.00021212987042912301</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B5" s="0">
-        <v>0.3539772117066457</v>
+        <v>0.41657401233791258</v>
       </c>
       <c r="C5" s="0">
         <v>0</v>
       </c>
       <c r="D5" s="0">
-        <v>0.0069629344203307525</v>
+        <v>0.00085702992327883157</v>
       </c>
       <c r="E5" s="0">
-        <v>0.0016983327415223471</v>
+        <v>-0.0017203512828952536</v>
       </c>
       <c r="F5" s="0">
-        <v>0.0043936920623375893</v>
+        <v>0.011380446719565807</v>
       </c>
       <c r="G5" s="0">
-        <v>8.2729084916599848e-05</v>
+        <v>-0.0040832422431917583</v>
       </c>
       <c r="H5" s="0">
-        <v>2.7543693344137858e-05</v>
+        <v>2.7382849010058295e-05</v>
       </c>
       <c r="I5" s="0">
-        <v>0.00072092397355882822</v>
+        <v>0.00028583952606197856</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>0.0048125470444961294</v>
+        <v>-0.018862154710124868</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="B6" s="0">
-        <v>0.34294223153989484</v>
+        <v>0.20998672549747965</v>
       </c>
       <c r="C6" s="0">
-        <v>-0.01948262214993151</v>
+        <v>-0.038618784035860929</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>9.9770040817011611e-05</v>
+        <v>-0.0059194528628760549</v>
       </c>
       <c r="F6" s="0">
-        <v>0.0001584194337636436</v>
+        <v>0.00066470959999673045</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>-9.9645693153017675e-05</v>
+        <v>0.0019435321816314547</v>
       </c>
       <c r="I6" s="0">
-        <v>-0.00029610944290417766</v>
+        <v>-0.013495768481409435</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>0.00044335907435461008</v>
+        <v>-0.00027209869927580232</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B7" s="0">
-        <v>0.27541467006044873</v>
+        <v>0.12872111768308056</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.0043756316501075906</v>
+        <v>-0.034118582471007013</v>
       </c>
       <c r="E7" s="0">
-        <v>-0.0047846826106095119</v>
+        <v>-0.0008352740581145788</v>
       </c>
       <c r="F7" s="0">
-        <v>-0.0071169043713227142</v>
+        <v>0.010867654597957912</v>
       </c>
       <c r="G7" s="0">
-        <v>0.00018918022669853915</v>
+        <v>0.0033280626211606777</v>
       </c>
       <c r="H7" s="0">
-        <v>-4.55098776353297e-05</v>
+        <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>-0.00020305203206303046</v>
+        <v>0</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>0.0036950990543022644</v>
+        <v>-0.007314001635197187</v>
       </c>
     </row>
     <row r="8">
